--- a/FRTB_Python/ResultFRTB.xlsx
+++ b/FRTB_Python/ResultFRTB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
   <si>
     <t>index</t>
   </si>
@@ -162,6 +162,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -204,9 +207,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Corp</t>
   </si>
   <si>
@@ -222,6 +222,9 @@
     <t>Singapore BR</t>
   </si>
   <si>
+    <t>TempDepart</t>
+  </si>
+  <si>
     <t>Tokyo BR</t>
   </si>
   <si>
@@ -274,6 +277,9 @@
   </si>
   <si>
     <t>SW PORT3</t>
+  </si>
+  <si>
+    <t>TempPort</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4469.274733206777</v>
+        <v>4469.314223841586</v>
       </c>
       <c r="F2">
-        <v>4328.117090056111</v>
+        <v>4328.149713107729</v>
       </c>
       <c r="G2">
-        <v>4182.197801346923</v>
+        <v>4182.223122540967</v>
       </c>
       <c r="H2">
-        <v>-5031.732592212949</v>
+        <v>-5031.817891712949</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -699,16 +705,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1858.323144698381</v>
+        <v>9018232.272935469</v>
       </c>
       <c r="F3">
-        <v>1838.199866246364</v>
+        <v>8961316.907515908</v>
       </c>
       <c r="G3">
-        <v>1817.853840773405</v>
+        <v>8904037.741679113</v>
       </c>
       <c r="H3">
-        <v>1881.2748594705</v>
+        <v>-9082245.913406214</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -721,16 +727,16 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>104.7698286088599</v>
+        <v>705583.8507012301</v>
       </c>
       <c r="F4">
-        <v>102.906021494202</v>
+        <v>693831.200743724</v>
       </c>
       <c r="G4">
-        <v>101.0078290668622</v>
+        <v>681876.0150354167</v>
       </c>
       <c r="H4">
-        <v>-106.879996233</v>
+        <v>-718905.8964569999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,16 +749,16 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.14268</v>
+        <v>104.7698286088599</v>
       </c>
       <c r="F5">
-        <v>0.14268</v>
+        <v>102.906021494202</v>
       </c>
       <c r="G5">
-        <v>0.14268</v>
+        <v>101.0078290668622</v>
       </c>
       <c r="H5">
-        <v>0.14268</v>
+        <v>-106.879996233</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -765,16 +771,16 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>3.77325</v>
+        <v>1.031314207764093</v>
       </c>
       <c r="F6">
-        <v>3.77325</v>
+        <v>1.020796142540335</v>
       </c>
       <c r="G6">
-        <v>3.77325</v>
+        <v>1.010168567177963</v>
       </c>
       <c r="H6">
-        <v>-3.77325</v>
+        <v>-0.9723602546</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -787,140 +793,140 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>5.033250000000001</v>
+        <v>3.77325</v>
       </c>
       <c r="F7">
-        <v>5.033250000000001</v>
+        <v>3.77325</v>
       </c>
       <c r="G7">
-        <v>5.033250000000001</v>
+        <v>3.77325</v>
       </c>
       <c r="H7">
-        <v>-5.033250000000001</v>
+        <v>-3.77325</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>99999</v>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>99999</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>4619.615497943249</v>
+        <v>5.033250000000001</v>
       </c>
       <c r="F8">
-        <v>4521.4870480538</v>
+        <v>5.033250000000001</v>
       </c>
       <c r="G8">
-        <v>4421.181166000673</v>
+        <v>5.033250000000001</v>
       </c>
       <c r="H8">
-        <v>-3266.001548975449</v>
+        <v>-5.033250000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>99999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E9">
-        <v>29327.5087953</v>
+        <v>9091546.140630649</v>
       </c>
       <c r="F9">
-        <v>29327.5087953</v>
+        <v>9024992.225454895</v>
       </c>
       <c r="G9">
-        <v>29327.5087953</v>
+        <v>8957943.855139215</v>
       </c>
       <c r="H9">
-        <v>29327.5087953</v>
+        <v>-9806300.286611415</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>14442.63295460001</v>
+        <v>29327.5087953</v>
       </c>
       <c r="F10">
-        <v>14442.63295460001</v>
+        <v>29327.5087953</v>
       </c>
       <c r="G10">
-        <v>14442.63295460001</v>
+        <v>29327.5087953</v>
       </c>
       <c r="H10">
-        <v>14442.63295460001</v>
+        <v>29327.5087953</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>99999</v>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>32852.421218607</v>
+        <v>14442.63295460001</v>
       </c>
       <c r="F11">
-        <v>32820.17287735948</v>
+        <v>14442.63295460001</v>
       </c>
       <c r="G11">
-        <v>32787.89281845887</v>
+        <v>14442.63295460001</v>
       </c>
       <c r="H11">
-        <v>43770.1417499</v>
+        <v>14442.63295460001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>99999</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E12">
-        <v>144.2698594189882</v>
+        <v>32852.421218607</v>
       </c>
       <c r="F12">
-        <v>138.4660497519867</v>
+        <v>32820.17287735948</v>
       </c>
       <c r="G12">
-        <v>132.4080871059796</v>
+        <v>32787.89281845887</v>
       </c>
       <c r="H12">
-        <v>151.02542411</v>
+        <v>43770.1417499</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>99999</v>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>144.2698594189882</v>
@@ -936,313 +942,313 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D14">
+        <v>99999</v>
+      </c>
+      <c r="E14">
+        <v>144.2698594189882</v>
+      </c>
+      <c r="F14">
+        <v>138.4660497519867</v>
+      </c>
+      <c r="G14">
+        <v>132.4080871059796</v>
+      </c>
+      <c r="H14">
+        <v>151.02542411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>9.575467249043255</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>8.85376042947289</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>8.067749032258005</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>11.22075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3.3530625</v>
-      </c>
-      <c r="F15">
-        <v>3.181055667566389</v>
-      </c>
-      <c r="G15">
-        <v>2.999200258636667</v>
-      </c>
-      <c r="H15">
-        <v>-3.3530625</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>99999</v>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>10.14557051951275</v>
+        <v>3.3530625</v>
       </c>
       <c r="F16">
-        <v>9.407879086311443</v>
+        <v>3.181055667566389</v>
       </c>
       <c r="G16">
-        <v>8.607193307862106</v>
+        <v>2.999200258636667</v>
       </c>
       <c r="H16">
-        <v>7.867687499999999</v>
+        <v>-3.3530625</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>99999</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E17">
-        <v>12439.4481265</v>
+        <v>10.14557051951275</v>
       </c>
       <c r="F17">
-        <v>12439.4481265</v>
+        <v>9.407879086311443</v>
       </c>
       <c r="G17">
-        <v>12439.4481265</v>
+        <v>8.607193307862106</v>
       </c>
       <c r="H17">
-        <v>12439.4481265</v>
+        <v>7.867687499999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>890.7969375000088</v>
+        <v>12439.4481265</v>
       </c>
       <c r="F18">
-        <v>890.7969375000088</v>
+        <v>12439.4481265</v>
       </c>
       <c r="G18">
-        <v>890.7969375000088</v>
+        <v>12439.4481265</v>
       </c>
       <c r="H18">
-        <v>890.7969375000088</v>
+        <v>12439.4481265</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>99999</v>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>12471.30261342991</v>
+        <v>890.7969375000088</v>
       </c>
       <c r="F19">
-        <v>12471.30261342991</v>
+        <v>890.7969375000088</v>
       </c>
       <c r="G19">
-        <v>12471.30261342991</v>
+        <v>890.7969375000088</v>
       </c>
       <c r="H19">
-        <v>13330.24506400001</v>
+        <v>890.7969375000088</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>99999</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E20">
-        <v>150.6890536121664</v>
+        <v>12471.30261342991</v>
       </c>
       <c r="F20">
-        <v>143.831727262535</v>
+        <v>12471.30261342991</v>
       </c>
       <c r="G20">
-        <v>136.6306724572419</v>
+        <v>12471.30261342991</v>
       </c>
       <c r="H20">
-        <v>151.02542411</v>
+        <v>13330.24506400001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>60.59190938014892</v>
+        <v>150.6890536121664</v>
       </c>
       <c r="F21">
-        <v>57.82742774425854</v>
+        <v>143.831727262535</v>
       </c>
       <c r="G21">
-        <v>54.92397761181092</v>
+        <v>136.6306724572419</v>
       </c>
       <c r="H21">
-        <v>60.72750614</v>
+        <v>151.02542411</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>99999</v>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E22">
+        <v>60.59190938014892</v>
+      </c>
+      <c r="F22">
+        <v>57.82742774425854</v>
+      </c>
+      <c r="G22">
+        <v>54.92397761181092</v>
+      </c>
+      <c r="H22">
+        <v>60.72750614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D23">
+        <v>99999</v>
+      </c>
+      <c r="E23">
         <v>162.4148095490757</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>155.021215215343</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>147.2568639243035</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>211.75293025</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.8964</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.8964</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0.8964</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>-0.8964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>200.0231201741052</v>
-      </c>
-      <c r="F24">
-        <v>194.2397434935961</v>
-      </c>
-      <c r="G24">
-        <v>188.2788020482697</v>
-      </c>
-      <c r="H24">
-        <v>206.4950719528</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>99999</v>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>199.9094209673969</v>
+        <v>200.0231201741052</v>
       </c>
       <c r="F25">
-        <v>194.1464937847664</v>
+        <v>194.2397434935961</v>
       </c>
       <c r="G25">
-        <v>188.2071877116194</v>
+        <v>188.2788020482697</v>
       </c>
       <c r="H25">
-        <v>205.5986719528</v>
+        <v>206.4950719528</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>99999</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E26">
-        <v>1961.1750006</v>
+        <v>199.9094209673969</v>
       </c>
       <c r="F26">
-        <v>1961.1750006</v>
+        <v>194.1464937847664</v>
       </c>
       <c r="G26">
-        <v>1961.1750006</v>
+        <v>188.2071877116194</v>
       </c>
       <c r="H26">
-        <v>1961.1750006</v>
+        <v>205.5986719528</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>99999</v>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1961.1750006</v>
@@ -1259,36 +1265,36 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>99999</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E28">
-        <v>144.2698594189882</v>
+        <v>1961.1750006</v>
       </c>
       <c r="F28">
-        <v>138.4660497519867</v>
+        <v>1961.1750006</v>
       </c>
       <c r="G28">
-        <v>132.4080871059796</v>
+        <v>1961.1750006</v>
       </c>
       <c r="H28">
-        <v>151.02542411</v>
+        <v>1961.1750006</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>99999</v>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>144.2698594189882</v>
@@ -1304,51 +1310,51 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D30">
+        <v>99999</v>
+      </c>
+      <c r="E30">
+        <v>144.2698594189882</v>
+      </c>
+      <c r="F30">
+        <v>138.4660497519867</v>
+      </c>
+      <c r="G30">
+        <v>132.4080871059796</v>
+      </c>
+      <c r="H30">
+        <v>151.02542411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0.5543164059512526</v>
-      </c>
-      <c r="F30">
-        <v>0.6017360344511153</v>
-      </c>
-      <c r="G30">
-        <v>0.6456824547772642</v>
-      </c>
-      <c r="H30">
-        <v>0.2462296729891868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>30545.6057223493</v>
+        <v>0.5543164059512526</v>
       </c>
       <c r="F31">
-        <v>30528.22421552398</v>
+        <v>0.6017360344511153</v>
       </c>
       <c r="G31">
-        <v>30510.832806749</v>
+        <v>0.6456824547772642</v>
       </c>
       <c r="H31">
-        <v>30579.49568821181</v>
+        <v>0.2462296729891868</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1358,225 +1364,225 @@
         <v>55</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>777.8605619409157</v>
+        <v>156960.4085093946</v>
       </c>
       <c r="F32">
-        <v>782.6235759688814</v>
+        <v>155833.7266966688</v>
       </c>
       <c r="G32">
-        <v>787.3577773170224</v>
+        <v>154698.839403882</v>
       </c>
       <c r="H32">
-        <v>777.8605619409157</v>
+        <v>-157266.1260831382</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>99999</v>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>99999</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>31038.3952117479</v>
+        <v>502658.4391784923</v>
       </c>
       <c r="F33">
-        <v>30925.3824323731</v>
+        <v>535528.7608582033</v>
       </c>
       <c r="G33">
-        <v>30811.95514498239</v>
+        <v>566495.0140427429</v>
       </c>
       <c r="H33">
-        <v>31357.60247982571</v>
+        <v>-567495.4559565226</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>99999</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E34">
-        <v>0.1096572567389112</v>
+        <v>623587.6988483057</v>
       </c>
       <c r="F34">
-        <v>0.1096572567389112</v>
+        <v>632710.7060522336</v>
       </c>
       <c r="G34">
-        <v>0.1096572567389112</v>
+        <v>641704.025974052</v>
       </c>
       <c r="H34">
-        <v>0.1096572567389112</v>
+        <v>-724761.3358099879</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>142.5544370640836</v>
+        <v>0.1096572567389112</v>
       </c>
       <c r="F35">
-        <v>142.5544370640836</v>
+        <v>0.1096572567389112</v>
       </c>
       <c r="G35">
-        <v>142.5544370640836</v>
+        <v>0.1096572567389112</v>
       </c>
       <c r="H35">
-        <v>142.5544370640836</v>
+        <v>0.1096572567389112</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>99999</v>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>142.5887430047933</v>
+        <v>142.5544370640836</v>
       </c>
       <c r="F36">
-        <v>142.5818909105358</v>
+        <v>142.5544370640836</v>
       </c>
       <c r="G36">
-        <v>142.5750384869697</v>
+        <v>142.5544370640836</v>
       </c>
       <c r="H36">
-        <v>142.6640943208225</v>
+        <v>142.5544370640836</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>54</v>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>99999</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E37">
-        <v>2.789236</v>
+        <v>142.5887430047933</v>
       </c>
       <c r="F37">
-        <v>2.789236</v>
+        <v>142.5818909105358</v>
       </c>
       <c r="G37">
-        <v>2.789236</v>
+        <v>142.5750384869697</v>
       </c>
       <c r="H37">
-        <v>2.789236</v>
+        <v>142.6640943208225</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>91.84316332</v>
+        <v>2.789236</v>
       </c>
       <c r="F38">
-        <v>91.11239310650933</v>
+        <v>2.789236</v>
       </c>
       <c r="G38">
-        <v>90.37571414138858</v>
+        <v>2.789236</v>
       </c>
       <c r="H38">
-        <v>91.84316332</v>
+        <v>2.789236</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>99999</v>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E39">
+        <v>91.84316332</v>
+      </c>
+      <c r="F39">
+        <v>91.11239310650933</v>
+      </c>
+      <c r="G39">
+        <v>90.37571414138858</v>
+      </c>
+      <c r="H39">
+        <v>91.84316332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D40">
+        <v>99999</v>
+      </c>
+      <c r="E40">
         <v>93.61176105567836</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>92.54955576632882</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>91.47501701089865</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>94.63239932</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>54.30380675400389</v>
-      </c>
-      <c r="F40">
-        <v>54.30380675400389</v>
-      </c>
-      <c r="G40">
-        <v>54.30380675400389</v>
-      </c>
-      <c r="H40">
-        <v>54.30380675400389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>31.89538758510363</v>
+        <v>54.30380675400389</v>
       </c>
       <c r="F41">
-        <v>31.89538758510363</v>
+        <v>54.30380675400389</v>
       </c>
       <c r="G41">
-        <v>31.89538758510363</v>
+        <v>54.30380675400389</v>
       </c>
       <c r="H41">
-        <v>-31.89538758510363</v>
+        <v>54.30380675400389</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1586,19 +1592,19 @@
         <v>58</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>10.73376426579289</v>
+        <v>31.89538758510363</v>
       </c>
       <c r="F42">
-        <v>10.73376426579289</v>
+        <v>31.89538758510363</v>
       </c>
       <c r="G42">
-        <v>10.73376426579289</v>
+        <v>31.89538758510363</v>
       </c>
       <c r="H42">
-        <v>10.73376426579289</v>
+        <v>-31.89538758510363</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1608,19 +1614,19 @@
         <v>59</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>8.507979501914656</v>
+        <v>10.73376426579289</v>
       </c>
       <c r="F43">
-        <v>8.507979501914656</v>
+        <v>10.73376426579289</v>
       </c>
       <c r="G43">
-        <v>8.507979501914656</v>
+        <v>10.73376426579289</v>
       </c>
       <c r="H43">
-        <v>8.507979501914656</v>
+        <v>10.73376426579289</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1630,291 +1636,291 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>22.91110823858155</v>
+        <v>8.507979501914656</v>
       </c>
       <c r="F44">
-        <v>22.91110823858155</v>
+        <v>8.507979501914656</v>
       </c>
       <c r="G44">
-        <v>22.91110823858155</v>
+        <v>8.507979501914656</v>
       </c>
       <c r="H44">
-        <v>22.91110823858155</v>
+        <v>8.507979501914656</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>99999</v>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>99999</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>65.54237307972571</v>
+        <v>22.91110823858155</v>
       </c>
       <c r="F45">
-        <v>66.12404728101055</v>
+        <v>22.91110823858155</v>
       </c>
       <c r="G45">
-        <v>66.70064908770144</v>
+        <v>22.91110823858155</v>
       </c>
       <c r="H45">
-        <v>64.56127117518938</v>
+        <v>22.91110823858155</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>56</v>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>99999</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E46">
-        <v>567.5049580341961</v>
+        <v>65.54237307972571</v>
       </c>
       <c r="F46">
-        <v>567.5049580341961</v>
+        <v>66.12404728101055</v>
       </c>
       <c r="G46">
-        <v>567.5049580341961</v>
+        <v>66.70064908770144</v>
       </c>
       <c r="H46">
-        <v>567.5049580341961</v>
+        <v>64.56127117518938</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>336.2955100341946</v>
+        <v>567.5049580341961</v>
       </c>
       <c r="F47">
-        <v>336.2955100341946</v>
+        <v>567.5049580341961</v>
       </c>
       <c r="G47">
-        <v>336.2955100341946</v>
+        <v>567.5049580341961</v>
       </c>
       <c r="H47">
-        <v>336.2955100341946</v>
+        <v>567.5049580341961</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>99999</v>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>779.051333251342</v>
+        <v>336.2955100341946</v>
       </c>
       <c r="F48">
-        <v>756.6822935453595</v>
+        <v>336.2955100341946</v>
       </c>
       <c r="G48">
-        <v>733.6315198309283</v>
+        <v>336.2955100341946</v>
       </c>
       <c r="H48">
-        <v>903.8004680683907</v>
+        <v>336.2955100341946</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
+        <v>99999</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E49">
-        <v>425.2046800000001</v>
+        <v>779.051333251342</v>
       </c>
       <c r="F49">
-        <v>424.3151065461387</v>
+        <v>756.6822935453595</v>
       </c>
       <c r="G49">
-        <v>423.4236641859069</v>
+        <v>733.6315198309283</v>
       </c>
       <c r="H49">
-        <v>-425.2046800000001</v>
+        <v>903.8004680683907</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>500.2408</v>
+        <v>425.2046800000001</v>
       </c>
       <c r="F50">
-        <v>499.1942429954573</v>
+        <v>424.3151065461387</v>
       </c>
       <c r="G50">
-        <v>498.1454872775375</v>
+        <v>423.4236641859069</v>
       </c>
       <c r="H50">
-        <v>500.2408</v>
+        <v>-425.2046800000001</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>99999</v>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E51">
+        <v>500.2408</v>
+      </c>
+      <c r="F51">
+        <v>499.1942429954573</v>
+      </c>
+      <c r="G51">
+        <v>498.1454872775375</v>
+      </c>
+      <c r="H51">
+        <v>500.2408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D52">
+        <v>99999</v>
+      </c>
+      <c r="E52">
         <v>334.6382882279408</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>417.124114309801</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>485.8006479301415</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>75.03611999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>26.60886211873371</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>26.35912614835256</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>26.1070013474498</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>31.53788941600001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>15.186425</v>
-      </c>
-      <c r="F53">
-        <v>14.75648978401114</v>
-      </c>
-      <c r="G53">
-        <v>14.31364653785418</v>
-      </c>
-      <c r="H53">
-        <v>15.185097</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>32.518378266</v>
+        <v>15.186425</v>
       </c>
       <c r="F54">
-        <v>32.518378266</v>
+        <v>14.75648978401114</v>
       </c>
       <c r="G54">
-        <v>32.518378266</v>
+        <v>14.31364653785418</v>
       </c>
       <c r="H54">
-        <v>32.518378266</v>
+        <v>15.185097</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>23.5473144615</v>
+        <v>32.518378266</v>
       </c>
       <c r="F55">
-        <v>23.5473144615</v>
+        <v>32.518378266</v>
       </c>
       <c r="G55">
-        <v>23.5473144615</v>
+        <v>32.518378266</v>
       </c>
       <c r="H55">
-        <v>23.5473144615</v>
+        <v>32.518378266</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>38.2604153305</v>
+        <v>23.5473144615</v>
       </c>
       <c r="F56">
-        <v>38.2604153305</v>
+        <v>23.5473144615</v>
       </c>
       <c r="G56">
-        <v>38.2604153305</v>
+        <v>23.5473144615</v>
       </c>
       <c r="H56">
-        <v>38.2604153305</v>
+        <v>23.5473144615</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1924,19 +1930,19 @@
         <v>48</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>16.41203499</v>
+        <v>38.2604153305</v>
       </c>
       <c r="F57">
-        <v>16.41203499</v>
+        <v>38.2604153305</v>
       </c>
       <c r="G57">
-        <v>16.41203499</v>
+        <v>38.2604153305</v>
       </c>
       <c r="H57">
-        <v>16.41203499</v>
+        <v>38.2604153305</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1946,75 +1952,75 @@
         <v>49</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>4.4759632435</v>
+        <v>16.41203499</v>
       </c>
       <c r="F58">
-        <v>4.4759632435</v>
+        <v>16.41203499</v>
       </c>
       <c r="G58">
-        <v>4.4759632435</v>
+        <v>16.41203499</v>
       </c>
       <c r="H58">
-        <v>4.4759632435</v>
+        <v>16.41203499</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>99999</v>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>99999</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>100.1568321234053</v>
+        <v>4.4759632435</v>
       </c>
       <c r="F59">
-        <v>94.12638840222249</v>
+        <v>4.4759632435</v>
       </c>
       <c r="G59">
-        <v>87.68217017328035</v>
+        <v>4.4759632435</v>
       </c>
       <c r="H59">
-        <v>161.9370927075</v>
+        <v>4.4759632435</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>99999</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E60">
-        <v>756.1190867985594</v>
+        <v>100.1568321234053</v>
       </c>
       <c r="F60">
-        <v>721.7318524873129</v>
+        <v>94.12638840222249</v>
       </c>
       <c r="G60">
-        <v>685.6220973455054</v>
+        <v>87.68217017328035</v>
       </c>
       <c r="H60">
-        <v>797.01949887</v>
+        <v>161.9370927075</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <v>99999</v>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D61">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>756.1190867985594</v>
@@ -2031,36 +2037,36 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>61</v>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>99999</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E62">
-        <v>206.4006741526091</v>
+        <v>756.1190867985594</v>
       </c>
       <c r="F62">
-        <v>195.509348462479</v>
+        <v>721.7318524873129</v>
       </c>
       <c r="G62">
-        <v>183.9743796885712</v>
+        <v>685.6220973455054</v>
       </c>
       <c r="H62">
-        <v>207.0239910244</v>
+        <v>797.01949887</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1">
-        <v>99999</v>
+      <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>206.4006741526091</v>
@@ -2076,517 +2082,516 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D64">
+        <v>99999</v>
+      </c>
+      <c r="E64">
+        <v>206.4006741526091</v>
+      </c>
+      <c r="F64">
+        <v>195.509348462479</v>
+      </c>
+      <c r="G64">
+        <v>183.9743796885712</v>
+      </c>
+      <c r="H64">
+        <v>207.0239910244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>17.202485136</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>17.19638627070344</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>17.19028524161756</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>17.202485136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>37.283631903</v>
-      </c>
-      <c r="F65">
-        <v>37.2650004941619</v>
-      </c>
-      <c r="G65">
-        <v>37.24635976550426</v>
-      </c>
-      <c r="H65">
-        <v>37.283631903</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <v>99999</v>
+      <c r="C66" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D66">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>44.79598491546343</v>
+        <v>37.283631903</v>
       </c>
       <c r="F66">
-        <v>44.05615067220587</v>
+        <v>37.2650004941619</v>
       </c>
       <c r="G66">
-        <v>43.30367836059409</v>
+        <v>37.24635976550426</v>
       </c>
       <c r="H66">
-        <v>54.486117039</v>
+        <v>37.283631903</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>46</v>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>99999</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E67">
-        <v>504.449275528</v>
+        <v>44.79598491546343</v>
       </c>
       <c r="F67">
-        <v>504.449275528</v>
+        <v>44.05615067220587</v>
       </c>
       <c r="G67">
-        <v>504.449275528</v>
+        <v>43.30367836059409</v>
       </c>
       <c r="H67">
-        <v>504.449275528</v>
+        <v>54.486117039</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>725.3717881939999</v>
+        <v>504.449275528</v>
       </c>
       <c r="F68">
-        <v>725.3717881939999</v>
+        <v>504.449275528</v>
       </c>
       <c r="G68">
-        <v>725.3717881939999</v>
+        <v>504.449275528</v>
       </c>
       <c r="H68">
-        <v>725.3717881939999</v>
+        <v>504.449275528</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1">
-        <v>99999</v>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D69">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>904.0047732134916</v>
+        <v>725.3717881939999</v>
       </c>
       <c r="F69">
-        <v>899.9479787920623</v>
+        <v>725.3717881939999</v>
       </c>
       <c r="G69">
-        <v>895.8728141154078</v>
+        <v>725.3717881939999</v>
       </c>
       <c r="H69">
-        <v>1229.821063722</v>
+        <v>725.3717881939999</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>46</v>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>99999</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="E70">
-        <v>24.88958394</v>
+        <v>904.0047732134916</v>
       </c>
       <c r="F70">
-        <v>24.87740681889898</v>
+        <v>899.9479787920623</v>
       </c>
       <c r="G70">
-        <v>24.86522373435833</v>
+        <v>895.8728141154078</v>
       </c>
       <c r="H70">
-        <v>24.88958394</v>
+        <v>1229.821063722</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>32.13172384</v>
+        <v>24.88958394</v>
       </c>
       <c r="F71">
-        <v>32.11566382922376</v>
+        <v>24.87740681889898</v>
       </c>
       <c r="G71">
-        <v>32.09959578333345</v>
+        <v>24.86522373435833</v>
       </c>
       <c r="H71">
-        <v>32.13172384</v>
+        <v>24.88958394</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>99999</v>
+      <c r="C72" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D72">
-        <v>99999</v>
+        <v>1</v>
       </c>
       <c r="E72">
+        <v>32.13172384</v>
+      </c>
+      <c r="F72">
+        <v>32.11566382922376</v>
+      </c>
+      <c r="G72">
+        <v>32.09959578333345</v>
+      </c>
+      <c r="H72">
+        <v>32.13172384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D73">
+        <v>99999</v>
+      </c>
+      <c r="E73">
         <v>45.29692798041187</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>44.38692744813212</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>43.45787583521391</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>57.02130778</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>7.65</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>7.65</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>7.65</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>7.65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>4.8</v>
-      </c>
-      <c r="F74">
-        <v>4.8</v>
-      </c>
-      <c r="G74">
-        <v>4.8</v>
-      </c>
-      <c r="H74">
-        <v>4.8</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1">
-        <v>99999</v>
+      <c r="C75" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>12.45</v>
+        <v>4.8</v>
       </c>
       <c r="F75">
-        <v>12.45</v>
+        <v>4.8</v>
       </c>
       <c r="G75">
-        <v>12.45</v>
+        <v>4.8</v>
       </c>
       <c r="H75">
-        <v>12.45</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>63</v>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1">
+        <v>99999</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>37.5</v>
+        <v>12.45</v>
       </c>
       <c r="F76">
-        <v>37.5</v>
+        <v>12.45</v>
       </c>
       <c r="G76">
-        <v>37.5</v>
+        <v>12.45</v>
       </c>
       <c r="H76">
-        <v>37.5</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="F77">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="H77">
-        <v>40</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>99999</v>
+      <c r="C78" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>77.5</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>77.5</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>77.5</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>77.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>63</v>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>99999</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>10.5</v>
+        <v>77.5</v>
       </c>
       <c r="F79">
-        <v>10.5</v>
+        <v>77.5</v>
       </c>
       <c r="G79">
-        <v>10.5</v>
+        <v>77.5</v>
       </c>
       <c r="H79">
-        <v>10.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="F80">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="H80">
-        <v>40</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>99999</v>
+      <c r="C81" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <v>99999</v>
+      </c>
+      <c r="D82">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>50.5</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>50.5</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>50.5</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>50.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>300</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>300</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>300</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>1.5</v>
-      </c>
-      <c r="F83">
-        <v>1.5</v>
-      </c>
-      <c r="G83">
-        <v>1.5</v>
-      </c>
-      <c r="H83">
-        <v>1.5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1.5</v>
+      </c>
+      <c r="F84">
+        <v>1.5</v>
+      </c>
+      <c r="G84">
+        <v>1.5</v>
+      </c>
+      <c r="H84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>3</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>301.5</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>301.5</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <v>301.5</v>
       </c>
-      <c r="H84">
+      <c r="H85">
         <v>301.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85">
-        <v>994.0976861093669</v>
-      </c>
-      <c r="F85">
-        <v>988.3910569124002</v>
-      </c>
-      <c r="G85">
-        <v>982.6343683112158</v>
-      </c>
-      <c r="H85">
-        <v>1341.328488541</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>45</v>
@@ -2595,21 +2600,21 @@
         <v>45</v>
       </c>
       <c r="E86">
-        <v>37616.30657596923</v>
+        <v>994.0976861093669</v>
       </c>
       <c r="F86">
-        <v>37480.12597516527</v>
+        <v>988.3910569124002</v>
       </c>
       <c r="G86">
-        <v>37341.48207156552</v>
+        <v>982.6343683112158</v>
       </c>
       <c r="H86">
-        <v>40655.16562503455</v>
+        <v>1341.328488541</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>45</v>
@@ -2618,21 +2623,21 @@
         <v>45</v>
       </c>
       <c r="E87">
-        <v>2305.354280986385</v>
+        <v>9124542.831708675</v>
       </c>
       <c r="F87">
-        <v>2293.787544136753</v>
+        <v>9057950.864382006</v>
       </c>
       <c r="G87">
-        <v>2281.790275417599</v>
+        <v>8990864.156044779</v>
       </c>
       <c r="H87">
-        <v>2317.7990966628</v>
+        <v>-9762379.119437406</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>45</v>
@@ -2641,21 +2646,21 @@
         <v>45</v>
       </c>
       <c r="E88">
-        <v>12643.8629934985</v>
+        <v>2305.354280986385</v>
       </c>
       <c r="F88">
-        <v>12635.73170773157</v>
+        <v>2293.787544136753</v>
       </c>
       <c r="G88">
-        <v>12627.16667066208</v>
+        <v>2281.790275417599</v>
       </c>
       <c r="H88">
-        <v>13549.86568175001</v>
+        <v>2317.7990966628</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -2664,21 +2669,21 @@
         <v>45</v>
       </c>
       <c r="E89">
-        <v>140.45</v>
+        <v>12643.8629934985</v>
       </c>
       <c r="F89">
-        <v>140.45</v>
+        <v>12635.73170773157</v>
       </c>
       <c r="G89">
-        <v>140.45</v>
+        <v>12627.16667066208</v>
       </c>
       <c r="H89">
-        <v>140.45</v>
+        <v>13549.86568175001</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>45</v>
@@ -2687,21 +2692,21 @@
         <v>45</v>
       </c>
       <c r="E90">
-        <v>1062.676593074574</v>
+        <v>140.45</v>
       </c>
       <c r="F90">
-        <v>1011.367589352014</v>
+        <v>140.45</v>
       </c>
       <c r="G90">
-        <v>957.2786472073569</v>
+        <v>140.45</v>
       </c>
       <c r="H90">
-        <v>1165.9805826019</v>
+        <v>140.45</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>45</v>
@@ -2710,21 +2715,21 @@
         <v>45</v>
       </c>
       <c r="E91">
-        <v>1179.231994559009</v>
+        <v>1062.676593074574</v>
       </c>
       <c r="F91">
-        <v>1239.930455136171</v>
+        <v>1011.367589352014</v>
       </c>
       <c r="G91">
-        <v>1286.132816848771</v>
+        <v>957.2786472073569</v>
       </c>
       <c r="H91">
-        <v>1043.39785924358</v>
+        <v>1165.9805826019</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>45</v>
@@ -2733,21 +2738,21 @@
         <v>45</v>
       </c>
       <c r="E92">
-        <v>31274.59571580837</v>
+        <v>1179.231994559009</v>
       </c>
       <c r="F92">
-        <v>31160.51387904997</v>
+        <v>1239.930455136171</v>
       </c>
       <c r="G92">
-        <v>31046.00520048026</v>
+        <v>1286.132816848771</v>
       </c>
       <c r="H92">
-        <v>31594.89897346653</v>
+        <v>1043.39785924358</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>45</v>
@@ -2756,21 +2761,21 @@
         <v>45</v>
       </c>
       <c r="E93">
-        <v>301.5</v>
+        <v>623823.8993523662</v>
       </c>
       <c r="F93">
-        <v>301.5</v>
+        <v>632945.8374989104</v>
       </c>
       <c r="G93">
-        <v>301.5</v>
+        <v>641938.0760295499</v>
       </c>
       <c r="H93">
-        <v>301.5</v>
+        <v>-724524.039316347</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>45</v>
@@ -2779,53 +2784,76 @@
         <v>45</v>
       </c>
       <c r="E94">
-        <v>87518.07584000545</v>
+        <v>301.5</v>
       </c>
       <c r="F94">
-        <v>87251.79820748413</v>
+        <v>301.5</v>
       </c>
       <c r="G94">
-        <v>86964.44005049279</v>
+        <v>301.5</v>
       </c>
       <c r="H94">
-        <v>92110.38630730039</v>
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95">
+        <v>9766993.90460927</v>
+      </c>
+      <c r="F95">
+        <v>9709507.860234184</v>
+      </c>
+      <c r="G95">
+        <v>9651379.184852777</v>
+      </c>
+      <c r="H95">
+        <v>-10467042.83704495</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2833,7 +2861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2976,248 +3004,305 @@
         <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>15.01874575917543</v>
+        <v>9091343.907032453</v>
       </c>
       <c r="D8">
-        <v>18.72886983694558</v>
+        <v>9024829.059064222</v>
       </c>
       <c r="E8">
-        <v>21.8169293568034</v>
+        <v>8957820.329450905</v>
       </c>
       <c r="F8">
-        <v>4.10889143945785</v>
+        <v>-9803034.285062436</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9">
+        <v>9740866.673263468</v>
+      </c>
+      <c r="D9">
+        <v>9679599.05623332</v>
+      </c>
+      <c r="E9">
+        <v>9617795.840006599</v>
+      </c>
+      <c r="F9">
+        <v>-10559153.22335225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>649522.7662310146</v>
+      </c>
+      <c r="D10">
+        <v>654769.9971690971</v>
+      </c>
+      <c r="E10">
+        <v>659975.5105556942</v>
+      </c>
+      <c r="F10">
+        <v>-756118.9382898135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <v>15.01874575917543</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>18.72886983694558</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>21.8169293568034</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>4.10889143945785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>994.0976861093669</v>
-      </c>
-      <c r="D10">
-        <v>988.3910569124002</v>
-      </c>
-      <c r="E10">
-        <v>982.6343683112158</v>
-      </c>
-      <c r="F10">
-        <v>1341.328488541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1849.219997458702</v>
-      </c>
-      <c r="D11">
-        <v>1841.692914818385</v>
-      </c>
-      <c r="E11">
-        <v>1834.134942141205</v>
-      </c>
-      <c r="F11">
-        <v>1290.13162354705</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>2305.354280986385</v>
+        <v>15.01874575917543</v>
       </c>
       <c r="D12">
-        <v>2293.787544136753</v>
+        <v>18.72886983694558</v>
       </c>
       <c r="E12">
-        <v>2281.790275417599</v>
+        <v>21.8169293568034</v>
       </c>
       <c r="F12">
-        <v>2317.7990966628</v>
+        <v>4.10889143945785</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>12643.8629934985</v>
+        <v>994.0976861093669</v>
       </c>
       <c r="D13">
-        <v>12635.73170773157</v>
+        <v>988.3910569124002</v>
       </c>
       <c r="E13">
-        <v>12627.16667066208</v>
+        <v>982.6343683112158</v>
       </c>
       <c r="F13">
-        <v>13549.86568175001</v>
+        <v>1341.328488541</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>140.45</v>
+        <v>1849.219997458702</v>
       </c>
       <c r="D14">
-        <v>140.45</v>
+        <v>1841.692914818385</v>
       </c>
       <c r="E14">
-        <v>140.45</v>
+        <v>1834.134942141205</v>
       </c>
       <c r="F14">
-        <v>140.45</v>
+        <v>1290.13162354705</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1062.676593074574</v>
+        <v>2305.354280986385</v>
       </c>
       <c r="D15">
-        <v>1011.367589352014</v>
+        <v>2293.787544136753</v>
       </c>
       <c r="E15">
-        <v>957.2786472073569</v>
+        <v>2281.790275417599</v>
       </c>
       <c r="F15">
-        <v>1165.9805826019</v>
+        <v>2317.7990966628</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>20311.22261712892</v>
+        <v>12643.8629934985</v>
       </c>
       <c r="D16">
-        <v>20230.67583559687</v>
+        <v>12635.73170773157</v>
       </c>
       <c r="E16">
-        <v>20146.36273655435</v>
+        <v>12627.16667066208</v>
       </c>
       <c r="F16">
-        <v>21122.2125286845</v>
+        <v>13549.86568175001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1014.061066001387</v>
+        <v>140.45</v>
       </c>
       <c r="D17">
-        <v>1017.755022645746</v>
+        <v>140.45</v>
       </c>
       <c r="E17">
-        <v>1021.407832814891</v>
+        <v>140.45</v>
       </c>
       <c r="F17">
-        <v>1015.157055581738</v>
+        <v>140.45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>301.5</v>
+        <v>1062.676593074574</v>
       </c>
       <c r="D18">
-        <v>301.5</v>
+        <v>1011.367589352014</v>
       </c>
       <c r="E18">
-        <v>301.5</v>
+        <v>957.2786472073569</v>
       </c>
       <c r="F18">
-        <v>301.5</v>
+        <v>1165.9805826019</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>6.445073665906582</v>
+        <v>20311.22261712892</v>
       </c>
       <c r="D19">
-        <v>6.414784126426237</v>
+        <v>20230.67583559687</v>
       </c>
       <c r="E19">
-        <v>6.384350884650492</v>
+        <v>20146.36273655435</v>
       </c>
       <c r="F19">
-        <v>-8.663820000000001</v>
+        <v>21122.2125286845</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1014.061066001387</v>
+      </c>
+      <c r="D20">
+        <v>1017.755022645746</v>
+      </c>
+      <c r="E20">
+        <v>1021.407832814891</v>
+      </c>
+      <c r="F20">
+        <v>1015.157055581738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>301.5</v>
+      </c>
+      <c r="D21">
+        <v>301.5</v>
+      </c>
+      <c r="E21">
+        <v>301.5</v>
+      </c>
+      <c r="F21">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6.445073665906582</v>
+      </c>
+      <c r="D22">
+        <v>6.414784126426237</v>
+      </c>
+      <c r="E22">
+        <v>6.384350884650492</v>
+      </c>
+      <c r="F22">
+        <v>-8.663820000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>6.445073665906582</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>6.414784126426237</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>6.384350884650492</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>-8.663820000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3225,7 +3310,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3233,7 +3318,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -3253,7 +3338,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -3345,7 +3430,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -3419,7 +3504,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -3457,7 +3542,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -3495,7 +3580,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -3533,7 +3618,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -3571,7 +3656,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -3609,7 +3694,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -3647,7 +3732,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3685,7 +3770,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
@@ -3723,7 +3808,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -3761,7 +3846,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -3799,7 +3884,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -3837,7 +3922,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -3873,8 +3958,64 @@
         <v>1015.157055581738</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>9091343.907032453</v>
+      </c>
+      <c r="D35">
+        <v>9024829.059064222</v>
+      </c>
+      <c r="E35">
+        <v>8957820.329450905</v>
+      </c>
+      <c r="F35">
+        <v>-9803034.285062436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>9740866.673263468</v>
+      </c>
+      <c r="D36">
+        <v>9679599.05623332</v>
+      </c>
+      <c r="E36">
+        <v>9617795.840006599</v>
+      </c>
+      <c r="F36">
+        <v>-10559153.22335225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>649522.7662310146</v>
+      </c>
+      <c r="D37">
+        <v>654769.9971690971</v>
+      </c>
+      <c r="E37">
+        <v>659975.5105556942</v>
+      </c>
+      <c r="F37">
+        <v>-756118.9382898135</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -3889,6 +4030,7 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
